--- a/medicine/Enfance/Les_Dauphins_de_Laurentum/Les_Dauphins_de_Laurentum.xlsx
+++ b/medicine/Enfance/Les_Dauphins_de_Laurentum/Les_Dauphins_de_Laurentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Dauphins de Laurentum (The Dolphins of Laurentum) est le cinquième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, en 2004. L'action de ce roman historique se situe sous la Rome antique, à Laurentum.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2004,  (ISBN 2-7459-1377-8)</t>
         </is>
@@ -568,7 +584,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
